--- a/webScrapping/espn_scrapper/IPL/Delhi Capitals/Kagiso Rabada.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Delhi Capitals/Kagiso Rabada.xlsx
@@ -509,28 +509,28 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Sep 20 2020</v>
+        <v xml:space="preserve"> Oct 9 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C4" t="str">
-        <v>Match tied (Capitals won the one-over eliminator)</v>
+        <v>Capitals won by 46 runs</v>
       </c>
       <c r="D4" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E4" t="str">
-        <v>Kings XI Punjab</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="F4" t="str">
         <v>Kagiso Rabada</v>
       </c>
       <c r="G4" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" t="str">
         <v>0</v>
@@ -539,33 +539,33 @@
         <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v>-</v>
+        <v>66.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Oct 9 2020</v>
+        <v xml:space="preserve"> Sep 20 2020</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C5" t="str">
-        <v>Capitals won by 46 runs</v>
+        <v>Match tied (Capitals won the one-over eliminator)</v>
       </c>
       <c r="D5" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E5" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Kings XI Punjab</v>
       </c>
       <c r="F5" t="str">
         <v>Kagiso Rabada</v>
       </c>
       <c r="G5" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="str">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v>66.66</v>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
